--- a/Note/07_1'st Project/프로젝트관리.xlsx
+++ b/Note/07_1'st Project/프로젝트관리.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
+    <sheet name="Gantt Chart" sheetId="10" r:id="rId1"/>
     <sheet name="전반적인" sheetId="1" r:id="rId2"/>
     <sheet name="색상표" sheetId="5" r:id="rId3"/>
     <sheet name="기능정의및설계" sheetId="7" r:id="rId4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="273">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,86 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획 및 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-R Modeling, 스토리보드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 모드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 모드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면(해더, 풋터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 모듈 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서신청 (파일업로드,답변,페이징)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내서재(내대출,내예약,내자리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서예약(대출중인 도서 3명까지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판(답변, 페이징)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인, 로그아웃, 정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입, 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자등록, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출, 반납</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원강등, 레벨별 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서등록, 수정, 삭제, 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 작성, 수정, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴바 152 124 77(98 7C 4D)</t>
   </si>
   <si>
@@ -236,18 +156,6 @@
   </si>
   <si>
     <t>해더글씨 117 107 95 (75 6B 5F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주제선정 및 요구사항, WBS, 일정관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UML설계, 기능정의, DFD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1049,10 +957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통합, 테스트 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No. 테스트 케이스 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,10 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자리예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,11 +1025,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>활동내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 및 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제선정 및 요구사항, WBS, 일정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML설계, 기능정의, DFD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-R Modeling, 스토리보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 모드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면(해더, 풋터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내서재(내대출,내예약,내자리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서예약(대출중인 도서 3명까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서신청 (파일업로드,답변,페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 모듈 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 로그아웃, 정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판(답변, 페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 모드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자등록, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출, 반납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원강등, 레벨별 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서등록, 수정, 삭제, 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 작성, 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합, 테스트 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1727,102 +1731,135 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1851,39 +1888,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2234,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB60" sqref="AB60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -2252,41 +2256,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="B2" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2331,32 +2335,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="C6" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="55"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2417,7 +2421,7 @@
       <c r="A9" s="16"/>
       <c r="B9" s="6"/>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
@@ -2456,8 +2460,8 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="59" t="s">
-        <v>54</v>
+      <c r="C11" s="55" t="s">
+        <v>249</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="38"/>
@@ -2477,7 +2481,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2515,8 +2519,8 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="51" t="s">
-        <v>55</v>
+      <c r="C14" s="58" t="s">
+        <v>250</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="38"/>
@@ -2536,7 +2540,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="51"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2574,8 +2578,8 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="59" t="s">
-        <v>21</v>
+      <c r="C17" s="55" t="s">
+        <v>251</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="6"/>
@@ -2595,7 +2599,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="59"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2633,7 +2637,7 @@
       <c r="A20" s="16"/>
       <c r="B20" s="6"/>
       <c r="C20" s="13" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2653,8 +2657,8 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="61" t="s">
-        <v>24</v>
+      <c r="C21" s="56" t="s">
+        <v>253</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="6"/>
@@ -2674,7 +2678,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="61"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2712,8 +2716,8 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="61" t="s">
-        <v>31</v>
+      <c r="C24" s="56" t="s">
+        <v>254</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="6"/>
@@ -2733,7 +2737,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="61"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2771,8 +2775,8 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
-        <v>27</v>
+      <c r="C27" s="56" t="s">
+        <v>255</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="6"/>
@@ -2792,7 +2796,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2830,8 +2834,8 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="61" t="s">
-        <v>28</v>
+      <c r="C30" s="56" t="s">
+        <v>256</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="6"/>
@@ -2851,7 +2855,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="61"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2889,8 +2893,8 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="61" t="s">
-        <v>26</v>
+      <c r="C33" s="56" t="s">
+        <v>257</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="6"/>
@@ -2910,7 +2914,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="61"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2948,8 +2952,8 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="61" t="s">
-        <v>261</v>
+      <c r="C36" s="56" t="s">
+        <v>258</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="6"/>
@@ -2969,7 +2973,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="61"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3008,7 +3012,7 @@
       <c r="A39" s="16"/>
       <c r="B39" s="6"/>
       <c r="C39" s="13" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3028,8 +3032,8 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="62" t="s">
-        <v>30</v>
+      <c r="C40" s="57" t="s">
+        <v>260</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="6"/>
@@ -3049,7 +3053,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="62"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3087,8 +3091,8 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="62" t="s">
-        <v>29</v>
+      <c r="C43" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="6"/>
@@ -3108,7 +3112,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="62"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3146,8 +3150,8 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="62" t="s">
-        <v>2</v>
+      <c r="C46" s="57" t="s">
+        <v>262</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="6"/>
@@ -3167,7 +3171,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="62"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3205,8 +3209,8 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="62" t="s">
-        <v>37</v>
+      <c r="C49" s="57" t="s">
+        <v>263</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="6"/>
@@ -3226,7 +3230,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="62"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3265,7 +3269,7 @@
       <c r="A52" s="16"/>
       <c r="B52" s="6"/>
       <c r="C52" s="13" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3285,8 +3289,8 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="60" t="s">
-        <v>32</v>
+      <c r="C53" s="52" t="s">
+        <v>265</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
@@ -3306,7 +3310,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="60"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3344,8 +3348,8 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="60" t="s">
-        <v>33</v>
+      <c r="C56" s="52" t="s">
+        <v>266</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="6"/>
@@ -3365,7 +3369,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="60"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3403,8 +3407,8 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="60" t="s">
-        <v>34</v>
+      <c r="C59" s="52" t="s">
+        <v>267</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="6"/>
@@ -3424,7 +3428,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="60"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3462,8 +3466,8 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="60" t="s">
-        <v>35</v>
+      <c r="C62" s="52" t="s">
+        <v>268</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="6"/>
@@ -3483,7 +3487,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="60"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3521,8 +3525,8 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="60" t="s">
-        <v>36</v>
+      <c r="C65" s="52" t="s">
+        <v>269</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="6"/>
@@ -3542,7 +3546,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="60"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3580,8 +3584,8 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="64" t="s">
-        <v>252</v>
+      <c r="C68" s="53" t="s">
+        <v>270</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
@@ -3601,7 +3605,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="64"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3661,19 +3665,19 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>271</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="M72" s="63"/>
-      <c r="N72" s="42"/>
+      <c r="L72" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="M72" s="51"/>
+      <c r="N72" s="50"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
@@ -3705,6 +3709,11 @@
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3712,17 +3721,12 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3859,94 +3863,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C16" s="37"/>
     </row>
@@ -3966,874 +3970,889 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="45" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="45" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="45"/>
+    <col min="1" max="1" width="2" style="43" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="43" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="43"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="G8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="44" t="s">
+      <c r="I8" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="44" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="74"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="74"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="74"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="74"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="74"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="74"/>
+      <c r="C16" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="74"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="74"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="74"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="74"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="74"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="75"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="E22" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="80"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="80"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="80"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="80"/>
+      <c r="C27" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="80"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="80"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="80"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="80"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="80"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="70"/>
+      <c r="C42" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="G44" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="47" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="87"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="87"/>
-      <c r="C16" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="87"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="87"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="68"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="68"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
-      <c r="C27" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="48"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="48"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="68"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="68"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="I34" s="49"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="I35" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="I38" s="49"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="I39" s="49"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="I40" s="49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="I41" s="49"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="84"/>
-      <c r="C42" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="84"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I43" s="49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="84"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C27:C32"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="D33:D34"/>
@@ -4850,21 +4869,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C27:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4883,71 +4887,71 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>255</v>
+        <v>230</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>263</v>
+        <v>232</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>257</v>
+        <v>232</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>259</v>
+        <v>234</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
